--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL388\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="3624" windowWidth="23040" windowHeight="9240" tabRatio="377"/>
+    <workbookView xWindow="4230" yWindow="3630" windowWidth="23040" windowHeight="9240" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -154,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Line</t>
     </r>
@@ -181,6 +182,9 @@
   </si>
   <si>
     <t>N00160</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -246,6 +250,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -254,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +276,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -328,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,21 +779,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
     <col min="10" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -817,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -878,21 +892,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="1" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="8" width="34.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -954,7 +968,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -990,7 +1004,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1040,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1076,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="6"/>
@@ -1082,7 +1096,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1113,7 +1127,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1158,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1189,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1206,7 +1220,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="6"/>
@@ -1221,7 +1235,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1262,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1263,7 +1277,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1304,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1305,7 +1319,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1324,15 +1338,19 @@
       <c r="F16" s="7">
         <v>50166</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="25">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1347,7 +1365,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3630" windowWidth="23040" windowHeight="9240" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="4230" yWindow="3630" windowWidth="23040" windowHeight="9240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000357</t>
   </si>
 </sst>
 </file>
@@ -779,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1381,9 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="7">
         <v>388</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3630" windowWidth="23040" windowHeight="9240" tabRatio="377"/>
+    <workbookView xWindow="4240" yWindow="3640" windowWidth="27200" windowHeight="10380" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$73</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$360</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -536,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,20 +778,20 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
     <col min="10" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -834,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -848,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <v>41917</v>
+        <v>41918</v>
       </c>
       <c r="F2" s="3">
         <v>0.843055555555556</v>
@@ -899,17 +894,17 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="8" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -971,7 +966,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1002,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1038,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1074,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="6"/>
@@ -1099,7 +1094,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="16" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1125,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="16" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1156,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="16" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1187,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="16" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1218,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="6"/>
@@ -1238,7 +1233,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1260,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1280,7 +1275,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1307,7 +1302,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1322,7 +1317,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1348,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1368,7 +1363,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
